--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H2">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I2">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J2">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>288.0493104767438</v>
+        <v>335.882185641464</v>
       </c>
       <c r="R2">
-        <v>1152.197241906975</v>
+        <v>1343.528742565856</v>
       </c>
       <c r="S2">
-        <v>0.01414807197157768</v>
+        <v>0.02448427122138085</v>
       </c>
       <c r="T2">
-        <v>0.00944596444399008</v>
+        <v>0.01483829609336217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H3">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I3">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J3">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>207.8657805278999</v>
+        <v>197.914576866944</v>
       </c>
       <c r="R3">
-        <v>1247.1946831674</v>
+        <v>1187.487461201664</v>
       </c>
       <c r="S3">
-        <v>0.01020971033907175</v>
+        <v>0.0144270651610196</v>
       </c>
       <c r="T3">
-        <v>0.01022477419962779</v>
+        <v>0.01311493382926381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H4">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I4">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J4">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>147.9510010897875</v>
+        <v>129.3379247487413</v>
       </c>
       <c r="R4">
-        <v>887.7060065387249</v>
+        <v>776.027548492448</v>
       </c>
       <c r="S4">
-        <v>0.007266885687804071</v>
+        <v>0.009428141664348513</v>
       </c>
       <c r="T4">
-        <v>0.007277607574032209</v>
+        <v>0.008570658874886323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H5">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I5">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J5">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>244.8726910878187</v>
+        <v>286.695283143192</v>
       </c>
       <c r="R5">
-        <v>979.4907643512749</v>
+        <v>1146.781132572768</v>
       </c>
       <c r="S5">
-        <v>0.01202737285380198</v>
+        <v>0.02089877156468623</v>
       </c>
       <c r="T5">
-        <v>0.008030079049630124</v>
+        <v>0.01266536208737779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H6">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I6">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J6">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>213.06215865495</v>
+        <v>99.74068841568531</v>
       </c>
       <c r="R6">
-        <v>1278.3729519297</v>
+        <v>598.444130494112</v>
       </c>
       <c r="S6">
-        <v>0.01046494001350269</v>
+        <v>0.007270638847109516</v>
       </c>
       <c r="T6">
-        <v>0.01048038045126784</v>
+        <v>0.006609379406835455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H7">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I7">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J7">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>139.3813913958125</v>
+        <v>143.7518828337386</v>
       </c>
       <c r="R7">
-        <v>836.288348374875</v>
+        <v>862.5112970024319</v>
       </c>
       <c r="S7">
-        <v>0.006845973537318377</v>
+        <v>0.01047885311679633</v>
       </c>
       <c r="T7">
-        <v>0.006856074391046013</v>
+        <v>0.009525808866842751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J8">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>526.369459167396</v>
+        <v>644.638191484716</v>
       </c>
       <c r="R8">
-        <v>3158.216755004376</v>
+        <v>3867.829148908296</v>
       </c>
       <c r="S8">
-        <v>0.0258536046471182</v>
+        <v>0.04699116831644134</v>
       </c>
       <c r="T8">
-        <v>0.02589175020486089</v>
+        <v>0.04271735492642437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J9">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>379.8453754143359</v>
+        <v>379.845375414336</v>
       </c>
       <c r="R9">
         <v>3418.608378729024</v>
       </c>
       <c r="S9">
-        <v>0.01865680463021575</v>
+        <v>0.0276889861725484</v>
       </c>
       <c r="T9">
-        <v>0.02802649756386772</v>
+        <v>0.03775603881309864</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J10">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>270.359572456584</v>
+        <v>248.230389894552</v>
       </c>
       <c r="R10">
-        <v>2433.236152109256</v>
+        <v>2234.073509050968</v>
       </c>
       <c r="S10">
-        <v>0.01327920793488428</v>
+        <v>0.01809485721893862</v>
       </c>
       <c r="T10">
-        <v>0.01994820100299369</v>
+        <v>0.02467371420601372</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J11">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>447.470281249524</v>
+        <v>550.236769716348</v>
       </c>
       <c r="R11">
-        <v>2684.821687497144</v>
+        <v>3301.420618298088</v>
       </c>
       <c r="S11">
-        <v>0.02197832632816354</v>
+        <v>0.04010973752592025</v>
       </c>
       <c r="T11">
-        <v>0.02201075412798031</v>
+        <v>0.03646178537980673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J12">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>389.3410230166079</v>
+        <v>191.426219508888</v>
       </c>
       <c r="R12">
-        <v>3504.069207149472</v>
+        <v>1722.835975579992</v>
       </c>
       <c r="S12">
-        <v>0.01912320083672404</v>
+        <v>0.01395409366051418</v>
       </c>
       <c r="T12">
-        <v>0.02872712408617862</v>
+        <v>0.01902746812630942</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J13">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>254.69982026892</v>
+        <v>275.894220455568</v>
       </c>
       <c r="R13">
-        <v>2292.298382420281</v>
+        <v>2483.047984100112</v>
       </c>
       <c r="S13">
-        <v>0.01251005038806894</v>
+        <v>0.02011142362059129</v>
       </c>
       <c r="T13">
-        <v>0.01879276240890893</v>
+        <v>0.02742345588508874</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H14">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I14">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J14">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>422.0781046106198</v>
+        <v>527.4808852640085</v>
       </c>
       <c r="R14">
-        <v>2532.468627663719</v>
+        <v>3164.885311584051</v>
       </c>
       <c r="S14">
-        <v>0.02073114284417032</v>
+        <v>0.03845093789131199</v>
       </c>
       <c r="T14">
-        <v>0.02076173049402527</v>
+        <v>0.03495385239405478</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H15">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I15">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J15">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>304.5853312872506</v>
+        <v>310.811828299416</v>
       </c>
       <c r="R15">
-        <v>2741.267981585256</v>
+        <v>2797.306454694744</v>
       </c>
       <c r="S15">
-        <v>0.01496026906437178</v>
+        <v>0.0226567571256054</v>
       </c>
       <c r="T15">
-        <v>0.0224735131657201</v>
+        <v>0.03089421173034506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H16">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I16">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J16">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>216.792319384021</v>
+        <v>203.116705681737</v>
       </c>
       <c r="R16">
-        <v>1951.130874456189</v>
+        <v>1828.050351135633</v>
       </c>
       <c r="S16">
-        <v>0.01064815372220104</v>
+        <v>0.01480627649843157</v>
       </c>
       <c r="T16">
-        <v>0.0159957967224265</v>
+        <v>0.0201894842472234</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H17">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I17">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J17">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>358.8114866659018</v>
+        <v>450.2360893733505</v>
       </c>
       <c r="R17">
-        <v>2152.868919995411</v>
+        <v>2701.416536240103</v>
       </c>
       <c r="S17">
-        <v>0.01762368647637441</v>
+        <v>0.03282014645944392</v>
       </c>
       <c r="T17">
-        <v>0.0176496892469474</v>
+        <v>0.02983517744449793</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H18">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I18">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J18">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>312.1995742343186</v>
+        <v>156.636192306153</v>
       </c>
       <c r="R18">
-        <v>2809.796168108868</v>
+        <v>1409.725730755377</v>
       </c>
       <c r="S18">
-        <v>0.01533425661895367</v>
+        <v>0.01141806019924499</v>
       </c>
       <c r="T18">
-        <v>0.0230353221943911</v>
+        <v>0.01556939359810853</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H19">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I19">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J19">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>204.2352866631328</v>
+        <v>225.752879006358</v>
       </c>
       <c r="R19">
-        <v>1838.117579968195</v>
+        <v>2031.775911057222</v>
       </c>
       <c r="S19">
-        <v>0.01003139195182727</v>
+        <v>0.01645634974073748</v>
       </c>
       <c r="T19">
-        <v>0.01506928907026015</v>
+        <v>0.02243948462617276</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H20">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I20">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J20">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>2874.781862037911</v>
+        <v>964.386645121427</v>
       </c>
       <c r="R20">
-        <v>11499.12744815164</v>
+        <v>3857.546580485708</v>
       </c>
       <c r="S20">
-        <v>0.1412002015189071</v>
+        <v>0.07029936445225897</v>
       </c>
       <c r="T20">
-        <v>0.09427235638264141</v>
+        <v>0.0426037914498714</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H21">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I21">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J21">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>2074.536386186579</v>
+        <v>568.253342882192</v>
       </c>
       <c r="R21">
-        <v>12447.21831711948</v>
+        <v>3409.520057293152</v>
       </c>
       <c r="S21">
-        <v>0.1018946723074835</v>
+        <v>0.04142306309878421</v>
       </c>
       <c r="T21">
-        <v>0.1020450122372237</v>
+        <v>0.03765566492440939</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H22">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I22">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J22">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>1476.576540660082</v>
+        <v>371.3557094348274</v>
       </c>
       <c r="R22">
-        <v>8859.459243960495</v>
+        <v>2228.134256608964</v>
       </c>
       <c r="S22">
-        <v>0.07252477408894437</v>
+        <v>0.02707012845008764</v>
       </c>
       <c r="T22">
-        <v>0.07263178036507283</v>
+        <v>0.0246081194900128</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H23">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I23">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J23">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>2443.871744329376</v>
+        <v>823.160959711431</v>
       </c>
       <c r="R23">
-        <v>9775.486977317505</v>
+        <v>3292.643838845724</v>
       </c>
       <c r="S23">
-        <v>0.1200352580981743</v>
+        <v>0.06000465954434588</v>
       </c>
       <c r="T23">
-        <v>0.08014157563647806</v>
+        <v>0.03636485224534203</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H24">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I24">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J24">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>2126.39713726149</v>
+        <v>286.3759734670193</v>
       </c>
       <c r="R24">
-        <v>12758.38282356894</v>
+        <v>1718.255840802116</v>
       </c>
       <c r="S24">
-        <v>0.1044419085341335</v>
+        <v>0.02087549535341563</v>
       </c>
       <c r="T24">
-        <v>0.1045960067694521</v>
+        <v>0.01897688387468274</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H25">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I25">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J25">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>1391.050356021037</v>
+        <v>412.7411394300627</v>
       </c>
       <c r="R25">
-        <v>8346.302136126225</v>
+        <v>2476.446836580376</v>
       </c>
       <c r="S25">
-        <v>0.06832399813942049</v>
+        <v>0.03008693653320058</v>
       </c>
       <c r="T25">
-        <v>0.0684248064039473</v>
+        <v>0.02735055102019784</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H26">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I26">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J26">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>179.8429643797685</v>
+        <v>987.4731100974044</v>
       </c>
       <c r="R26">
-        <v>1079.057786278611</v>
+        <v>5924.838660584426</v>
       </c>
       <c r="S26">
-        <v>0.008833318154504922</v>
+        <v>0.07198226189123812</v>
       </c>
       <c r="T26">
-        <v>0.008846351224837718</v>
+        <v>0.06543552628673423</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H27">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I27">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J27">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>129.780550772296</v>
+        <v>581.8567673637493</v>
       </c>
       <c r="R27">
-        <v>1168.024956950664</v>
+        <v>5236.710906273744</v>
       </c>
       <c r="S27">
-        <v>0.006374410581988459</v>
+        <v>0.04241469036805998</v>
       </c>
       <c r="T27">
-        <v>0.009575723506149304</v>
+        <v>0.0578356565965465</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H28">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I28">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J28">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>92.37288773544898</v>
+        <v>380.2455987990842</v>
       </c>
       <c r="R28">
-        <v>831.355989619041</v>
+        <v>3422.210389191758</v>
       </c>
       <c r="S28">
-        <v>0.004537064371862513</v>
+        <v>0.02771816062216263</v>
       </c>
       <c r="T28">
-        <v>0.006815637837530663</v>
+        <v>0.03779582039430647</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H29">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I29">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J29">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>152.8857353902265</v>
+        <v>842.866621089163</v>
       </c>
       <c r="R29">
-        <v>917.314412341359</v>
+        <v>5057.199726534977</v>
       </c>
       <c r="S29">
-        <v>0.007509264244196628</v>
+        <v>0.06144111190292408</v>
       </c>
       <c r="T29">
-        <v>0.007520343746522972</v>
+        <v>0.05585308640460138</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H30">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I30">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J30">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>133.024898223988</v>
+        <v>293.2315317795002</v>
       </c>
       <c r="R30">
-        <v>1197.224084015892</v>
+        <v>2639.083786015502</v>
       </c>
       <c r="S30">
-        <v>0.006533762677542422</v>
+        <v>0.0213752341197816</v>
       </c>
       <c r="T30">
-        <v>0.009815104322230065</v>
+        <v>0.0291467576326673</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H31">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I31">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J31">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>87.02247044616168</v>
+        <v>422.6217551642191</v>
       </c>
       <c r="R31">
-        <v>783.2022340154551</v>
+        <v>3803.595796477971</v>
       </c>
       <c r="S31">
-        <v>0.004274268780505171</v>
+        <v>0.0308071881148893</v>
       </c>
       <c r="T31">
-        <v>0.006420862840045654</v>
+        <v>0.04200794434797243</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H32">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I32">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J32">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>433.8676522419775</v>
+        <v>401.3978167814872</v>
       </c>
       <c r="R32">
-        <v>2603.205913451865</v>
+        <v>2408.386900688923</v>
       </c>
       <c r="S32">
-        <v>0.02131020817199467</v>
+        <v>0.02926006032436282</v>
       </c>
       <c r="T32">
-        <v>0.02134165020057941</v>
+        <v>0.02659887861539023</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H33">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I33">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J33">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>313.09305351164</v>
+        <v>236.5188820952346</v>
       </c>
       <c r="R33">
-        <v>2817.83748160476</v>
+        <v>2128.669938857112</v>
       </c>
       <c r="S33">
-        <v>0.01537814149789934</v>
+        <v>0.01724114200084161</v>
       </c>
       <c r="T33">
-        <v>0.02310124663736186</v>
+        <v>0.0235096085681641</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H34">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I34">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J34">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>222.847794301035</v>
+        <v>154.5659842663121</v>
       </c>
       <c r="R34">
-        <v>2005.630148709315</v>
+        <v>1391.093858396809</v>
       </c>
       <c r="S34">
-        <v>0.01094557951643815</v>
+        <v>0.01126715152561187</v>
       </c>
       <c r="T34">
-        <v>0.01644259366664263</v>
+        <v>0.01536361814271919</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H35">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I35">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J35">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>368.8338618294475</v>
+        <v>342.6167437711865</v>
       </c>
       <c r="R35">
-        <v>2213.003170976685</v>
+        <v>2055.700462627119</v>
       </c>
       <c r="S35">
-        <v>0.01811595387637378</v>
+        <v>0.02497518962924274</v>
       </c>
       <c r="T35">
-        <v>0.01814268296015484</v>
+        <v>0.02270371386731059</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H36">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I36">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J36">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>320.91997861142</v>
+        <v>119.1956474198801</v>
       </c>
       <c r="R36">
-        <v>2888.27980750278</v>
+        <v>1072.760826778921</v>
       </c>
       <c r="S36">
-        <v>0.01576257532780353</v>
+        <v>0.008688816152195942</v>
       </c>
       <c r="T36">
-        <v>0.02367874819836489</v>
+        <v>0.01184786173960501</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H37">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I37">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J37">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>209.9400166972584</v>
+        <v>171.7914625852895</v>
       </c>
       <c r="R37">
-        <v>1889.460150275325</v>
+        <v>1546.123163267606</v>
       </c>
       <c r="S37">
-        <v>0.01031159026567724</v>
+        <v>0.01252280991152596</v>
       </c>
       <c r="T37">
-        <v>0.01549020666660983</v>
+        <v>0.01707580386375391</v>
       </c>
     </row>
   </sheetData>
